--- a/Day2-Java数据类型/内存分配土.xlsx
+++ b/Day2-Java数据类型/内存分配土.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-80" windowWidth="21600" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="-80" windowWidth="21600" windowHeight="13660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="总体内存分配图" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <t>JVM</t>
@@ -185,6 +186,22 @@
       </rPr>
       <t>指向的地址)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的作用区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在内部作用区域中对 aa 操作，不会影响外面的 aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +224,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +261,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -269,6 +298,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A4:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="200" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="200" workbookViewId="0">
       <pane xSplit="20860" topLeftCell="D1"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -810,4 +843,177 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13">
+        <v>100</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>